--- a/src/metadata.xlsx
+++ b/src/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\data-metadata\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E96FCC0-92A2-4491-BFA1-89BD0D9D21A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0626573A-C34E-4A7E-8464-04A8941B4904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26030" yWindow="1580" windowWidth="21600" windowHeight="12530" xr2:uid="{49B86459-8BE7-4EA0-9D05-B91F0742BEF6}"/>
+    <workbookView xWindow="10780" yWindow="4180" windowWidth="19130" windowHeight="10610" xr2:uid="{49B86459-8BE7-4EA0-9D05-B91F0742BEF6}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -20,38 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
-  <si>
-    <t>object_type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>classification</t>
-  </si>
-  <si>
-    <t>pi</t>
-  </si>
-  <si>
-    <t>pci</t>
-  </si>
-  <si>
-    <t>treatment</t>
-  </si>
-  <si>
     <t>table</t>
   </si>
   <si>
     <t>account</t>
   </si>
   <si>
-    <t>adls:/database/account</t>
-  </si>
-  <si>
     <t>internal</t>
   </si>
   <si>
@@ -64,76 +43,73 @@
     <t>id</t>
   </si>
   <si>
-    <t>adls:/database/account/id</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
-    <t>adls:/database/account/number</t>
-  </si>
-  <si>
     <t>card_number</t>
   </si>
   <si>
-    <t>adls:/database/account/card_number</t>
-  </si>
-  <si>
     <t>masked</t>
   </si>
   <si>
     <t>person</t>
   </si>
   <si>
-    <t>adls:/database/person</t>
-  </si>
-  <si>
-    <t>adls:/database/person/id</t>
-  </si>
-  <si>
-    <t>adls:/database/person/name</t>
-  </si>
-  <si>
     <t>date_of_birth</t>
   </si>
   <si>
-    <t>adls:/database/person/date_of_birth</t>
-  </si>
-  <si>
     <t>credit_score</t>
   </si>
   <si>
-    <t>adls:/database/person/credit_score</t>
-  </si>
-  <si>
     <t>rounded</t>
   </si>
   <si>
     <t>payments</t>
   </si>
   <si>
-    <t>adls:/database/payments</t>
-  </si>
-  <si>
-    <t>adls:/database/payments/id</t>
-  </si>
-  <si>
     <t>account_id</t>
   </si>
   <si>
-    <t>adls:/database/payments/account_id</t>
-  </si>
-  <si>
-    <t>adls:/database/payments/card_number</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
-    <t>adls:/database/payments/date</t>
-  </si>
-  <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>Object Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Business Description</t>
+  </si>
+  <si>
+    <t>Security Classification</t>
+  </si>
+  <si>
+    <t>PCI-DSS</t>
+  </si>
+  <si>
+    <t>object description</t>
+  </si>
+  <si>
+    <t>table_path</t>
+  </si>
+  <si>
+    <t>db/account</t>
+  </si>
+  <si>
+    <t>db/person</t>
+  </si>
+  <si>
+    <t>db/payments</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Data Treatment</t>
   </si>
 </sst>
 </file>
@@ -994,358 +970,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83148921-7FC4-43AD-8FC3-1A97BA82703A}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>